--- a/£JD..xlsx
+++ b/£JD..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB5AD8-3631-4BE6-AAF7-E4ECF52E25CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C42E9-82FE-E64C-B7FC-1DE153CA08CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="495" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="161">
   <si>
     <t>£JD.</t>
   </si>
@@ -506,6 +516,9 @@
   </si>
   <si>
     <t>5:1 share split approved in Nov. 21</t>
+  </si>
+  <si>
+    <t>JD Sports fined £1.5m for Rangers kit price fixing</t>
   </si>
 </sst>
 </file>
@@ -1565,26 +1578,26 @@
   <dimension ref="B2:Z42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1616,7 @@
       <c r="R5" s="80"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1612,10 +1625,10 @@
       </c>
       <c r="D6" s="30"/>
       <c r="J6" s="27">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1625,7 +1638,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1636,9 +1649,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="28" t="s">
-        <v>155</v>
-      </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1647,7 +1658,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1656,8 +1667,12 @@
         <v>5273.52</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="27">
+        <v>44743</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1666,7 +1681,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1677,11 +1692,9 @@
       <c r="D9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="27">
-        <v>44713</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>75</v>
+      <c r="J9" s="15"/>
+      <c r="K9" s="28" t="s">
+        <v>155</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -1691,7 +1704,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1703,9 +1716,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1714,7 +1725,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1725,8 +1736,12 @@
       <c r="D11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="27">
+        <v>44713</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1735,7 +1750,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1744,11 +1759,9 @@
         <v>4260.42</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="J12" s="27">
-        <v>44713</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>80</v>
+      <c r="J12" s="15"/>
+      <c r="K12" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -1758,11 +1771,9 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J13" s="15"/>
-      <c r="K13" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1779,9 +1790,13 @@
       <c r="Y13" s="79"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="J14" s="15"/>
-      <c r="K14" s="9"/>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="J14" s="27">
+        <v>44713</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1800,14 +1815,16 @@
       <c r="Y14" s="46"/>
       <c r="Z14" s="47"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="80"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1824,7 +1841,7 @@
       <c r="Y15" s="82"/>
       <c r="Z15" s="83"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1872,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
@@ -1863,12 +1880,8 @@
         <v>25</v>
       </c>
       <c r="D17" s="95"/>
-      <c r="J17" s="27">
-        <v>44593</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1887,14 +1900,12 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B18" s="12"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1913,7 +1924,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
@@ -1924,8 +1935,12 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="27">
+        <v>44593</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1944,12 +1959,10 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="J20" s="27">
-        <v>44501</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>159</v>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="J20" s="15"/>
+      <c r="K20" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -1969,7 +1982,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J21" s="15"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1990,14 +2003,18 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B22" s="78" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="80"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="27">
+        <v>44501</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2016,7 +2033,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
@@ -2027,12 +2044,8 @@
       <c r="E23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="27">
-        <v>44317</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2051,7 +2064,7 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
@@ -2059,15 +2072,15 @@
         <v>1981</v>
       </c>
       <c r="D24" s="95"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="11"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
       <c r="U24" s="45" t="s">
         <v>144</v>
       </c>
@@ -2079,7 +2092,7 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
@@ -2087,6 +2100,19 @@
         <v>3402</v>
       </c>
       <c r="D25" s="95"/>
+      <c r="J25" s="27">
+        <v>44317</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="10"/>
       <c r="U25" s="45" t="s">
         <v>145</v>
       </c>
@@ -2098,7 +2124,7 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
@@ -2107,6 +2133,15 @@
         <v>1428.5</v>
       </c>
       <c r="D26" s="87"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="11"/>
       <c r="U26" s="45" t="s">
         <v>146</v>
       </c>
@@ -2118,7 +2153,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
@@ -2133,7 +2168,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2190,7 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +2209,7 @@
       <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U30" s="51" t="s">
         <v>150</v>
       </c>
@@ -2187,7 +2222,7 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U31" s="81" t="s">
         <v>141</v>
       </c>
@@ -2197,7 +2232,7 @@
       <c r="Y31" s="82"/>
       <c r="Z31" s="83"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="78" t="s">
         <v>111</v>
       </c>
@@ -2214,7 +2249,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>112</v>
       </c>
@@ -2234,7 +2269,7 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
         <v>113</v>
       </c>
@@ -2254,7 +2289,7 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
         <v>114</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
@@ -2291,7 +2326,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
@@ -2306,7 +2341,7 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
         <v>116</v>
       </c>
@@ -2326,7 +2361,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U39" s="45" t="s">
         <v>135</v>
       </c>
@@ -2338,7 +2373,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U40" s="48" t="s">
         <v>136</v>
       </c>
@@ -2350,7 +2385,7 @@
       <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U41" s="54" t="s">
         <v>151</v>
       </c>
@@ -2363,7 +2398,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="56"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U42" s="57" t="s">
         <v>152</v>
       </c>
@@ -2412,31 +2447,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A183BE-4343-43E1-9A3D-8E131F07A90A}">
-  <dimension ref="B1:AG81"/>
+  <dimension ref="B1:AG84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="35"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="35"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="35"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="9.1640625" style="35"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="35"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="35"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="35"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19"/>
       <c r="E2" s="36">
         <f>Q2</f>
@@ -2565,7 +2600,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
       <c r="E3" s="36"/>
       <c r="G3" s="36"/>
@@ -2582,7 +2617,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
         <v>140</v>
       </c>
@@ -2600,7 +2635,7 @@
       <c r="S4" s="63"/>
       <c r="T4" s="63"/>
     </row>
-    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="61" t="s">
         <v>141</v>
       </c>
@@ -2618,7 +2653,7 @@
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2689,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2722,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2731,7 +2766,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2764,7 +2799,7 @@
         <v>2808.1</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2830,7 +2865,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2863,7 +2898,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>721.20000000000016</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3049,7 @@
         <v>654.70000000000016</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>195.1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3091,7 +3126,7 @@
         <v>459.60000000000014</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>8.9101959064475947E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3200,7 @@
         <v>5158.1357449999996</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -3200,7 +3235,7 @@
         <v>0.38845199682194798</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3231,7 +3266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3267,7 +3302,7 @@
         <v>1.0052356020942392</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -3308,7 +3343,7 @@
         <v>0.49141655961695668</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>8.422281910545372E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3425,7 @@
         <v>5.3672778231928078E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3431,20 +3466,20 @@
         <v>0.29799908354971733</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="26"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3486,7 +3521,7 @@
         <v>688.5</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
@@ -3507,7 +3542,7 @@
         <v>2032.6</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
@@ -3528,7 +3563,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3585,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
@@ -3571,7 +3606,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,7 +3631,7 @@
         <v>4392.0999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3620,7 +3655,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -3641,7 +3676,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3662,7 +3697,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3683,7 +3718,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3704,7 +3739,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -3728,7 +3763,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3753,11 +3788,11 @@
         <v>7068.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
@@ -3781,7 +3816,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3802,7 +3837,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3823,7 +3858,7 @@
         <v>1279.5</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
@@ -3844,7 +3879,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
@@ -3865,7 +3900,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
@@ -3886,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
@@ -3911,7 +3946,7 @@
         <v>1886.8999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
@@ -3935,7 +3970,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
@@ -3956,7 +3991,7 @@
         <v>1863.9</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
@@ -3977,7 +4012,7 @@
         <v>775.4</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
@@ -3998,7 +4033,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>104</v>
       </c>
@@ -4019,7 +4054,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
@@ -4044,11 +4079,11 @@
         <v>4728.9999999999991</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
@@ -4069,7 +4104,7 @@
         <v>2339.6</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
@@ -4094,7 +4129,7 @@
         <v>7068.5999999999985</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
@@ -4115,7 +4150,7 @@
         <v>2339.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
@@ -4136,7 +4171,7 @@
         <v>0.45357472460236709</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>121</v>
       </c>
@@ -4153,7 +4188,7 @@
         <v>0.21592724591372736</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
@@ -4167,7 +4202,7 @@
       </c>
       <c r="T73" s="23"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4184,7 +4219,7 @@
         <v>0.11554361789092607</v>
       </c>
     </row>
-    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="61" t="s">
         <v>6</v>
       </c>
@@ -4212,7 +4247,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="61" t="s">
         <v>7</v>
       </c>
@@ -4240,7 +4275,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -4265,7 +4300,7 @@
         <v>1185.9000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
@@ -4283,6 +4318,9 @@
       <c r="L81" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L84" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£JD..xlsx
+++ b/£JD..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C42E9-82FE-E64C-B7FC-1DE153CA08CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF0E37-8788-4D37-9CF6-817E664D91C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
+    <workbookView xWindow="4800" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -975,45 +965,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,6 +977,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1577,27 +1567,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C2AB4-9105-4D94-A3A3-86AFBD0C921C}">
   <dimension ref="B2:Z42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
@@ -1616,12 +1606,12 @@
       <c r="R5" s="80"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>1.022</v>
+        <v>1.196</v>
       </c>
       <c r="D6" s="30"/>
       <c r="J6" s="27">
@@ -1638,7 +1628,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1658,13 +1648,13 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>5273.52</v>
+        <v>6171.36</v>
       </c>
       <c r="D8" s="30"/>
       <c r="J8" s="27">
@@ -1681,7 +1671,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1694,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1715,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1750,13 +1740,13 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="8">
         <f>C8-C11</f>
-        <v>4260.42</v>
+        <v>5158.2599999999993</v>
       </c>
       <c r="D12" s="31"/>
       <c r="J12" s="15"/>
@@ -1771,7 +1761,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J13" s="15"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1790,7 +1780,7 @@
       <c r="Y13" s="79"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J14" s="27">
         <v>44713</v>
       </c>
@@ -1815,7 +1805,7 @@
       <c r="Y14" s="46"/>
       <c r="Z14" s="47"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
@@ -1832,23 +1822,23 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
-      <c r="U15" s="81" t="s">
+      <c r="U15" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="83"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="95"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,14 +1862,14 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="82"/>
       <c r="J17" s="15"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1900,10 +1890,10 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
       <c r="J18" s="15"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1924,14 +1914,14 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1949,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J20" s="15"/>
       <c r="K20" s="28" t="s">
         <v>78</v>
@@ -1982,7 +1972,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J21" s="15"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -2003,7 +1993,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="78" t="s">
         <v>16</v>
       </c>
@@ -2033,14 +2023,14 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="1" t="s">
         <v>119</v>
       </c>
@@ -2064,14 +2054,14 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="81">
         <v>1981</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="82"/>
       <c r="J24" s="15"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2092,14 +2082,14 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="81">
         <v>3402</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="82"/>
       <c r="J25" s="27">
         <v>44317</v>
       </c>
@@ -2124,15 +2114,15 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="98">
         <f>'Financial Model'!L44</f>
         <v>1428.5</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="99"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -2153,7 +2143,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
@@ -2168,7 +2158,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>21</v>
       </c>
@@ -2190,14 +2180,14 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="U29" s="48" t="s">
         <v>149</v>
       </c>
@@ -2209,7 +2199,7 @@
       <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U30" s="51" t="s">
         <v>150</v>
       </c>
@@ -2222,17 +2212,17 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="U31" s="81" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="U31" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="83"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="95"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="78" t="s">
         <v>111</v>
       </c>
@@ -2249,15 +2239,15 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="96">
         <f>Main!C12/'Financial Model'!L18</f>
-        <v>19.696809986130337</v>
-      </c>
-      <c r="D33" s="85"/>
+        <v>23.847711511789132</v>
+      </c>
+      <c r="D33" s="97"/>
       <c r="U33" s="45" t="s">
         <v>129</v>
       </c>
@@ -2269,15 +2259,15 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="87">
         <f>C6/('Financial Model'!L19+'Financial Model'!K19)</f>
-        <v>13.208756530668998</v>
-      </c>
-      <c r="D34" s="89"/>
+        <v>15.457605489902271</v>
+      </c>
+      <c r="D34" s="88"/>
       <c r="U34" s="45" t="s">
         <v>130</v>
       </c>
@@ -2289,12 +2279,12 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88"/>
       <c r="U35" s="45" t="s">
         <v>131</v>
       </c>
@@ -2306,15 +2296,15 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="88">
+      <c r="C36" s="87">
         <f>C6/'Financial Model'!L70</f>
-        <v>1.9809164028971902</v>
-      </c>
-      <c r="D36" s="89"/>
+        <v>2.3181761427250871</v>
+      </c>
+      <c r="D36" s="88"/>
       <c r="U36" s="45" t="s">
         <v>132</v>
       </c>
@@ -2326,7 +2316,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
@@ -2341,15 +2331,15 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="90">
+      <c r="C38" s="89">
         <f>C6/'Financial Model'!S19</f>
-        <v>21.698173855148315</v>
-      </c>
-      <c r="D38" s="91"/>
+        <v>25.392383493891764</v>
+      </c>
+      <c r="D38" s="90"/>
       <c r="U38" s="45" t="s">
         <v>134</v>
       </c>
@@ -2361,7 +2351,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U39" s="45" t="s">
         <v>135</v>
       </c>
@@ -2373,7 +2363,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U40" s="48" t="s">
         <v>136</v>
       </c>
@@ -2385,7 +2375,7 @@
       <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U41" s="54" t="s">
         <v>151</v>
       </c>
@@ -2398,7 +2388,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="56"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U42" s="57" t="s">
         <v>152</v>
       </c>
@@ -2413,6 +2403,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="U31:Z31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="J5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -2424,17 +2425,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="U31:Z31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{50A5A8B1-9447-405B-8B83-89261E65DD2C}"/>
@@ -2449,29 +2439,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A183BE-4343-43E1-9A3D-8E131F07A90A}">
   <dimension ref="B1:AG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L84" sqref="L84"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="9.1640625" style="35"/>
-    <col min="6" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.1640625" style="35"/>
-    <col min="8" max="8" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="9.1640625" style="35"/>
-    <col min="10" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="35"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="35"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="35"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="35"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
       <c r="E2" s="36">
         <f>Q2</f>
@@ -2600,7 +2590,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="E3" s="36"/>
       <c r="G3" s="36"/>
@@ -2617,7 +2607,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
         <v>140</v>
       </c>
@@ -2635,7 +2625,7 @@
       <c r="S4" s="63"/>
       <c r="T4" s="63"/>
     </row>
-    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
         <v>141</v>
       </c>
@@ -2653,7 +2643,7 @@
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2722,7 +2712,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2766,7 +2756,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2799,7 +2789,7 @@
         <v>2808.1</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2832,7 +2822,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2865,7 +2855,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2888,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2942,7 +2932,7 @@
         <v>721.20000000000016</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2975,7 +2965,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,7 +2998,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3049,7 +3039,7 @@
         <v>654.70000000000016</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3082,7 +3072,7 @@
         <v>195.1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3126,7 +3116,7 @@
         <v>459.60000000000014</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3167,7 +3157,7 @@
         <v>8.9101959064475947E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3200,7 +3190,7 @@
         <v>5158.1357449999996</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -3235,7 +3225,7 @@
         <v>0.38845199682194798</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3266,7 +3256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3302,7 +3292,7 @@
         <v>1.0052356020942392</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -3343,7 +3333,7 @@
         <v>0.49141655961695668</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3384,7 +3374,7 @@
         <v>8.422281910545372E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,7 +3415,7 @@
         <v>5.3672778231928078E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3466,20 +3456,20 @@
         <v>0.29799908354971733</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3500,7 +3490,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3521,7 +3511,7 @@
         <v>688.5</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,7 +3532,7 @@
         <v>2032.6</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
@@ -3563,7 +3553,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
@@ -3585,7 +3575,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
@@ -3606,7 +3596,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3631,7 +3621,7 @@
         <v>4392.0999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3655,7 +3645,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -3676,7 +3666,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3697,7 +3687,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3718,7 +3708,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3739,7 +3729,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -3763,7 +3753,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3788,11 +3778,11 @@
         <v>7068.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
@@ -3816,7 +3806,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3837,7 +3827,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3858,7 +3848,7 @@
         <v>1279.5</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
@@ -3879,7 +3869,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
@@ -3900,7 +3890,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
@@ -3921,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
@@ -3946,7 +3936,7 @@
         <v>1886.8999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
@@ -3970,7 +3960,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
@@ -3991,7 +3981,7 @@
         <v>1863.9</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4012,7 +4002,7 @@
         <v>775.4</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
@@ -4033,7 +4023,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>104</v>
       </c>
@@ -4054,7 +4044,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
@@ -4079,11 +4069,11 @@
         <v>4728.9999999999991</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
@@ -4104,7 +4094,7 @@
         <v>2339.6</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
@@ -4129,7 +4119,7 @@
         <v>7068.5999999999985</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
@@ -4150,7 +4140,7 @@
         <v>2339.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
@@ -4171,7 +4161,7 @@
         <v>0.45357472460236709</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>121</v>
       </c>
@@ -4188,7 +4178,7 @@
         <v>0.21592724591372736</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
@@ -4202,7 +4192,7 @@
       </c>
       <c r="T73" s="23"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4219,7 +4209,7 @@
         <v>0.11554361789092607</v>
       </c>
     </row>
-    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="61" t="s">
         <v>6</v>
       </c>
@@ -4247,7 +4237,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="61" t="s">
         <v>7</v>
       </c>
@@ -4275,7 +4265,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -4300,7 +4290,7 @@
         <v>1185.9000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
@@ -4319,7 +4309,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L84" s="4"/>
     </row>
   </sheetData>

--- a/£JD..xlsx
+++ b/£JD..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CF0E37-8788-4D37-9CF6-817E664D91C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0DC2E-8DC8-0D41-BADA-A719DA048255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
   <si>
     <t>£JD.</t>
   </si>
@@ -509,6 +519,15 @@
   </si>
   <si>
     <t>JD Sports fined £1.5m for Rangers kit price fixing</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
   </si>
 </sst>
 </file>
@@ -825,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -965,6 +984,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,43 +1037,10 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1200,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1191,8 +1216,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14163675" y="19050"/>
-          <a:ext cx="0" cy="14011275"/>
+          <a:off x="15528925" y="19050"/>
+          <a:ext cx="0" cy="20351750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1225,8 +1250,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1241,8 +1266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8677275" y="0"/>
-          <a:ext cx="0" cy="14011275"/>
+          <a:off x="9940925" y="0"/>
+          <a:ext cx="0" cy="18973800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1568,26 +1593,26 @@
   <dimension ref="B2:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1631,7 @@
       <c r="R5" s="80"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1628,7 +1653,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1673,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1696,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1719,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1740,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1765,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1786,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J13" s="15"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1780,7 +1805,7 @@
       <c r="Y13" s="79"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J14" s="27">
         <v>44713</v>
       </c>
@@ -1805,7 +1830,7 @@
       <c r="Y14" s="46"/>
       <c r="Z14" s="47"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
@@ -1822,23 +1847,23 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
-      <c r="U15" s="93" t="s">
+      <c r="U15" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="95"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="83"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,14 +1887,14 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="95"/>
       <c r="J17" s="15"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1890,10 +1915,10 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B18" s="12"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
       <c r="J18" s="15"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1914,14 +1939,14 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1949,7 +1974,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J20" s="15"/>
       <c r="K20" s="28" t="s">
         <v>78</v>
@@ -1972,7 +1997,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
       <c r="J21" s="15"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1993,7 +2018,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B22" s="78" t="s">
         <v>16</v>
       </c>
@@ -2023,14 +2048,14 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="1" t="s">
         <v>119</v>
       </c>
@@ -2054,14 +2079,14 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="94">
         <v>1981</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="95"/>
       <c r="J24" s="15"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2082,14 +2107,14 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="94">
         <v>3402</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="95"/>
       <c r="J25" s="27">
         <v>44317</v>
       </c>
@@ -2114,15 +2139,15 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="86">
         <f>'Financial Model'!L44</f>
         <v>1428.5</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="87"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -2143,7 +2168,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
@@ -2158,7 +2183,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
         <v>21</v>
       </c>
@@ -2180,14 +2205,14 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="92"/>
+      <c r="D29" s="93"/>
       <c r="U29" s="48" t="s">
         <v>149</v>
       </c>
@@ -2199,7 +2224,7 @@
       <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U30" s="51" t="s">
         <v>150</v>
       </c>
@@ -2212,17 +2237,17 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="U31" s="93" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="U31" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="95"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="83"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="78" t="s">
         <v>111</v>
       </c>
@@ -2239,15 +2264,15 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="84">
         <f>Main!C12/'Financial Model'!L18</f>
         <v>23.847711511789132</v>
       </c>
-      <c r="D33" s="97"/>
+      <c r="D33" s="85"/>
       <c r="U33" s="45" t="s">
         <v>129</v>
       </c>
@@ -2259,15 +2284,15 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="88">
         <f>C6/('Financial Model'!L19+'Financial Model'!K19)</f>
         <v>15.457605489902271</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="89"/>
       <c r="U34" s="45" t="s">
         <v>130</v>
       </c>
@@ -2279,12 +2304,15 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
+      <c r="C35" s="100">
+        <f>'Financial Model'!L92</f>
+        <v>0.24699383736660172</v>
+      </c>
+      <c r="D35" s="101"/>
       <c r="U35" s="45" t="s">
         <v>131</v>
       </c>
@@ -2296,15 +2324,15 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="88">
         <f>C6/'Financial Model'!L70</f>
         <v>2.3181761427250871</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="89"/>
       <c r="U36" s="45" t="s">
         <v>132</v>
       </c>
@@ -2316,7 +2344,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
@@ -2331,15 +2359,15 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="89">
+      <c r="C38" s="90">
         <f>C6/'Financial Model'!S19</f>
         <v>25.392383493891764</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="91"/>
       <c r="U38" s="45" t="s">
         <v>134</v>
       </c>
@@ -2351,7 +2379,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U39" s="45" t="s">
         <v>135</v>
       </c>
@@ -2363,7 +2391,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="U40" s="48" t="s">
         <v>136</v>
       </c>
@@ -2375,7 +2403,7 @@
       <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U41" s="54" t="s">
         <v>151</v>
       </c>
@@ -2388,7 +2416,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="56"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="U42" s="57" t="s">
         <v>152</v>
       </c>
@@ -2403,17 +2431,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="U31:Z31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="J5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -2425,6 +2442,17 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="U31:Z31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{50A5A8B1-9447-405B-8B83-89261E65DD2C}"/>
@@ -2437,31 +2465,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A183BE-4343-43E1-9A3D-8E131F07A90A}">
-  <dimension ref="B1:AG84"/>
+  <dimension ref="B1:AG92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="35"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="35"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="35"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="9.1640625" style="35"/>
+    <col min="6" max="6" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="35"/>
+    <col min="8" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.1640625" style="35"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="35"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19"/>
       <c r="E2" s="36">
         <f>Q2</f>
@@ -2590,7 +2618,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
       <c r="E3" s="36"/>
       <c r="G3" s="36"/>
@@ -2607,7 +2635,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
         <v>140</v>
       </c>
@@ -2625,7 +2653,7 @@
       <c r="S4" s="63"/>
       <c r="T4" s="63"/>
     </row>
-    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="61" t="s">
         <v>141</v>
       </c>
@@ -2643,7 +2671,7 @@
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2679,7 +2707,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2712,7 +2740,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2756,7 +2784,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2789,7 +2817,7 @@
         <v>2808.1</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2822,7 +2850,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2855,7 +2883,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2888,7 +2916,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2932,7 +2960,7 @@
         <v>721.20000000000016</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2965,7 +2993,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2998,7 +3026,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3039,7 +3067,7 @@
         <v>654.70000000000016</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3072,7 +3100,7 @@
         <v>195.1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3144,7 @@
         <v>459.60000000000014</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3157,7 +3185,7 @@
         <v>8.9101959064475947E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3218,7 @@
         <v>5158.1357449999996</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -3225,7 +3253,7 @@
         <v>0.38845199682194798</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3256,7 +3284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3292,7 +3320,7 @@
         <v>1.0052356020942392</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -3333,7 +3361,7 @@
         <v>0.49141655961695668</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>8.422281910545372E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3415,7 +3443,7 @@
         <v>5.3672778231928078E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3456,20 +3484,20 @@
         <v>0.29799908354971733</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="26"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3490,7 +3518,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3511,7 +3539,7 @@
         <v>688.5</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>2032.6</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
@@ -3553,7 +3581,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
@@ -3575,7 +3603,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
@@ -3596,7 +3624,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,7 +3649,7 @@
         <v>4392.0999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3645,7 +3673,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -3666,7 +3694,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3687,7 +3715,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3708,7 +3736,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3729,7 +3757,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -3753,7 +3781,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3778,11 +3806,11 @@
         <v>7068.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
@@ -3806,7 +3834,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3827,7 +3855,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3848,7 +3876,7 @@
         <v>1279.5</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
@@ -3869,7 +3897,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
@@ -3890,7 +3918,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
@@ -3911,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
@@ -3936,7 +3964,7 @@
         <v>1886.8999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
@@ -3960,7 +3988,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
@@ -3981,7 +4009,7 @@
         <v>1863.9</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4002,7 +4030,7 @@
         <v>775.4</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
@@ -4023,7 +4051,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>104</v>
       </c>
@@ -4044,7 +4072,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
@@ -4069,11 +4097,11 @@
         <v>4728.9999999999991</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
@@ -4094,7 +4122,7 @@
         <v>2339.6</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
@@ -4119,7 +4147,7 @@
         <v>7068.5999999999985</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
@@ -4135,12 +4163,16 @@
         <f>L50-L64</f>
         <v>2661.1999999999989</v>
       </c>
+      <c r="S69" s="4">
+        <f t="shared" ref="S69:T69" si="27">S50-S64</f>
+        <v>1496.3999999999996</v>
+      </c>
       <c r="T69" s="4">
         <f>T50-T64</f>
         <v>2339.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
@@ -4156,12 +4188,16 @@
         <f>L69/+L20</f>
         <v>0.51592283172842301</v>
       </c>
+      <c r="S70" s="42">
+        <f>S69/+S20</f>
+        <v>0.30751110042325308</v>
+      </c>
       <c r="T70" s="42">
         <f>T69/+T20</f>
         <v>0.45357472460236709</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>121</v>
       </c>
@@ -4178,7 +4214,7 @@
         <v>0.21592724591372736</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
@@ -4192,16 +4228,16 @@
       </c>
       <c r="T73" s="23"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
       <c r="L75" s="23">
-        <f t="shared" ref="L75" si="27">L44/L6</f>
+        <f t="shared" ref="L75" si="28">L44/L6</f>
         <v>0.32332903284217196</v>
       </c>
       <c r="S75" s="23">
-        <f t="shared" ref="S75" si="28">S44/S6</f>
+        <f t="shared" ref="S75" si="29">S44/S6</f>
         <v>0.1319378009826018</v>
       </c>
       <c r="T75" s="23">
@@ -4209,7 +4245,7 @@
         <v>0.11554361789092607</v>
       </c>
     </row>
-    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="61" t="s">
         <v>6</v>
       </c>
@@ -4229,15 +4265,15 @@
         <v>1137.9000000000001</v>
       </c>
       <c r="S77" s="63">
-        <f t="shared" ref="S77:T77" si="29">S49</f>
+        <f t="shared" ref="S77:T77" si="30">S49</f>
         <v>964.4</v>
       </c>
       <c r="T77" s="63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="61" t="s">
         <v>7</v>
       </c>
@@ -4257,15 +4293,15 @@
         <v>124.8</v>
       </c>
       <c r="S78" s="63">
-        <f t="shared" ref="S78:T78" si="30">S52+S59</f>
+        <f t="shared" ref="S78:T78" si="31">S52+S59</f>
         <v>169</v>
       </c>
       <c r="T78" s="63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>128.1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -4282,15 +4318,15 @@
         <v>1013.1000000000001</v>
       </c>
       <c r="S79" s="4">
-        <f t="shared" ref="S79:T79" si="31">S77-S78</f>
+        <f t="shared" ref="S79:T79" si="32">S77-S78</f>
         <v>795.4</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1185.9000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
@@ -4309,8 +4345,70 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="K92" s="76">
+        <f>SUM(J13:K13)/K69</f>
+        <v>0.30825782184988887</v>
+      </c>
+      <c r="L92" s="23">
+        <f>SUM(K13:L13)/L69</f>
+        <v>0.24699383736660172</v>
+      </c>
+      <c r="S92" s="23">
+        <f t="shared" ref="S92:T92" si="33">S13/S69</f>
+        <v>0.25728414862336296</v>
+      </c>
+      <c r="T92" s="23">
+        <f>T13/T69</f>
+        <v>0.30825782184988887</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£JD..xlsx
+++ b/£JD..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0DC2E-8DC8-0D41-BADA-A719DA048255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B022D7DC-0644-4661-8DA2-479F18D197AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
+    <workbookView xWindow="4800" yWindow="495" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{2B6D9BA9-D0EE-454E-AD66-78B4D681C2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="164">
   <si>
     <t>£JD.</t>
   </si>
@@ -543,7 +533,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +619,11 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -844,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -984,45 +979,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,12 +993,52 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1592,27 +1588,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947C2AB4-9105-4D94-A3A3-86AFBD0C921C}">
   <dimension ref="B2:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1627,7 @@
       <c r="R5" s="80"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1653,7 +1649,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1669,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1692,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1715,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1736,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1761,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +1782,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J13" s="15"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1805,7 +1801,7 @@
       <c r="Y13" s="79"/>
       <c r="Z13" s="80"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J14" s="27">
         <v>44713</v>
       </c>
@@ -1830,7 +1826,7 @@
       <c r="Y14" s="46"/>
       <c r="Z14" s="47"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
@@ -1847,23 +1843,23 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
-      <c r="U15" s="81" t="s">
+      <c r="U15" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="83"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="97"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1887,14 +1883,14 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="82"/>
       <c r="J17" s="15"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1915,10 +1911,10 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
       <c r="J18" s="15"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1939,14 +1935,14 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1970,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J20" s="15"/>
       <c r="K20" s="28" t="s">
         <v>78</v>
@@ -1997,7 +1993,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="J21" s="15"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -2018,7 +2014,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="78" t="s">
         <v>16</v>
       </c>
@@ -2048,14 +2044,14 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="1" t="s">
         <v>119</v>
       </c>
@@ -2079,14 +2075,14 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="81">
         <v>1981</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="82"/>
       <c r="J24" s="15"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2107,14 +2103,14 @@
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="81">
         <v>3402</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="82"/>
       <c r="J25" s="27">
         <v>44317</v>
       </c>
@@ -2139,15 +2135,15 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="100">
         <f>'Financial Model'!L44</f>
         <v>1428.5</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="101"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -2168,7 +2164,7 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
@@ -2183,7 +2179,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>21</v>
       </c>
@@ -2205,14 +2201,14 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="U29" s="48" t="s">
         <v>149</v>
       </c>
@@ -2224,7 +2220,7 @@
       <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U30" s="51" t="s">
         <v>150</v>
       </c>
@@ -2237,17 +2233,17 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="U31" s="81" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="U31" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="83"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="97"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="78" t="s">
         <v>111</v>
       </c>
@@ -2264,15 +2260,15 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="10"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="98">
         <f>Main!C12/'Financial Model'!L18</f>
         <v>23.847711511789132</v>
       </c>
-      <c r="D33" s="85"/>
+      <c r="D33" s="99"/>
       <c r="U33" s="45" t="s">
         <v>129</v>
       </c>
@@ -2284,15 +2280,15 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="10"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="87">
         <f>C6/('Financial Model'!L19+'Financial Model'!K19)</f>
         <v>15.457605489902271</v>
       </c>
-      <c r="D34" s="89"/>
+      <c r="D34" s="88"/>
       <c r="U34" s="45" t="s">
         <v>130</v>
       </c>
@@ -2304,15 +2300,15 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="93">
         <f>'Financial Model'!L92</f>
-        <v>0.24699383736660172</v>
-      </c>
-      <c r="D35" s="101"/>
+        <v>0.11592388141302627</v>
+      </c>
+      <c r="D35" s="94"/>
       <c r="U35" s="45" t="s">
         <v>131</v>
       </c>
@@ -2324,15 +2320,15 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="88">
+      <c r="C36" s="87">
         <f>C6/'Financial Model'!L70</f>
         <v>2.3181761427250871</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="88"/>
       <c r="U36" s="45" t="s">
         <v>132</v>
       </c>
@@ -2344,7 +2340,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
@@ -2359,15 +2355,15 @@
       <c r="Y37" s="9"/>
       <c r="Z37" s="10"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="90">
+      <c r="C38" s="89">
         <f>C6/'Financial Model'!S19</f>
         <v>25.392383493891764</v>
       </c>
-      <c r="D38" s="91"/>
+      <c r="D38" s="90"/>
       <c r="U38" s="45" t="s">
         <v>134</v>
       </c>
@@ -2379,7 +2375,7 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="10"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U39" s="45" t="s">
         <v>135</v>
       </c>
@@ -2391,7 +2387,7 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="10"/>
     </row>
-    <row r="40" spans="2:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U40" s="48" t="s">
         <v>136</v>
       </c>
@@ -2403,7 +2399,7 @@
       <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U41" s="54" t="s">
         <v>151</v>
       </c>
@@ -2416,7 +2412,7 @@
       <c r="Y41" s="55"/>
       <c r="Z41" s="56"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="U42" s="57" t="s">
         <v>152</v>
       </c>
@@ -2431,6 +2427,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="U31:Z31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="J5:R5"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -2442,17 +2449,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="U31:Z31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{50A5A8B1-9447-405B-8B83-89261E65DD2C}"/>
@@ -2467,29 +2463,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A183BE-4343-43E1-9A3D-8E131F07A90A}">
   <dimension ref="B1:AG92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
+      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="9.1640625" style="35"/>
-    <col min="6" max="6" width="9.1640625" style="1"/>
-    <col min="7" max="7" width="9.1640625" style="35"/>
-    <col min="8" max="8" width="9.1640625" style="1"/>
-    <col min="9" max="9" width="9.1640625" style="35"/>
-    <col min="10" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="35"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="35"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="35"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="35"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
       <c r="E2" s="36">
         <f>Q2</f>
@@ -2618,7 +2614,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="E3" s="36"/>
       <c r="G3" s="36"/>
@@ -2635,7 +2631,7 @@
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
         <v>140</v>
       </c>
@@ -2653,7 +2649,7 @@
       <c r="S4" s="63"/>
       <c r="T4" s="63"/>
     </row>
-    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:33" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +2667,7 @@
       <c r="S5" s="63"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2703,7 @@
         <v>8563</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2784,7 +2780,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>2808.1</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2883,7 +2879,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,7 +2912,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>721.20000000000016</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,7 +2989,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3026,7 +3022,7 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3067,7 +3063,7 @@
         <v>654.70000000000016</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3100,7 +3096,7 @@
         <v>195.1</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>459.60000000000014</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v>8.9101959064475947E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3214,7 @@
         <v>5158.1357449999996</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>0.38845199682194798</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3284,7 +3280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3320,7 +3316,7 @@
         <v>1.0052356020942392</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>0.49141655961695668</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>8.422281910545372E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>5.3672778231928078E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3484,20 +3480,20 @@
         <v>0.29799908354971733</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
@@ -3518,7 +3514,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>688.5</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>2032.6</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
@@ -3603,7 +3599,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>88</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>4392.0999999999995</v>
       </c>
     </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>989.4</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
@@ -3781,7 +3777,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
@@ -3806,11 +3802,11 @@
         <v>7068.5999999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
@@ -3834,7 +3830,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
@@ -3855,7 +3851,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
@@ -3876,7 +3872,7 @@
         <v>1279.5</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
@@ -3918,7 +3914,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>1886.8999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>96</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>1863.9</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4030,7 +4026,7 @@
         <v>775.4</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
@@ -4051,7 +4047,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>104</v>
       </c>
@@ -4072,7 +4068,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
@@ -4097,11 +4093,11 @@
         <v>4728.9999999999991</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>2339.6</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
@@ -4147,7 +4143,7 @@
         <v>7068.5999999999985</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>117</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>2661.1999999999989</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" ref="S69:T69" si="27">S50-S64</f>
+        <f t="shared" ref="S69" si="27">S50-S64</f>
         <v>1496.3999999999996</v>
       </c>
       <c r="T69" s="4">
@@ -4172,7 +4168,7 @@
         <v>2339.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>0.45357472460236709</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>121</v>
       </c>
@@ -4214,7 +4210,7 @@
         <v>0.21592724591372736</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
@@ -4228,7 +4224,7 @@
       </c>
       <c r="T73" s="23"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>0.11554361789092607</v>
       </c>
     </row>
-    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="61" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4269,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:20" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="61" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4297,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -4326,7 +4322,7 @@
         <v>1185.9000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
@@ -4345,69 +4341,69 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:20" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="23" t="s">
         <v>114</v>
       </c>
       <c r="E92" s="76"/>
       <c r="G92" s="76"/>
       <c r="I92" s="76"/>
-      <c r="K92" s="76">
-        <f>SUM(J13:K13)/K69</f>
-        <v>0.30825782184988887</v>
+      <c r="K92" s="102">
+        <f>SUM(J13:K13)/(K50-K58)</f>
+        <v>0.1391821216975124</v>
       </c>
       <c r="L92" s="23">
-        <f>SUM(K13:L13)/L69</f>
-        <v>0.24699383736660172</v>
+        <f>SUM(K13:L13)/(L50-L58)</f>
+        <v>0.11592388141302627</v>
       </c>
       <c r="S92" s="23">
-        <f t="shared" ref="S92:T92" si="33">S13/S69</f>
-        <v>0.25728414862336296</v>
+        <f t="shared" ref="S92:T92" si="33">S13/(S50-S58)</f>
+        <v>0.10673690047130589</v>
       </c>
       <c r="T92" s="23">
-        <f>T13/T69</f>
-        <v>0.30825782184988887</v>
+        <f>T13/(T50-T58)</f>
+        <v>0.13918212169751243</v>
       </c>
     </row>
   </sheetData>
